--- a/WriteUp/ParameterTests.xlsx
+++ b/WriteUp/ParameterTests.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="465" windowWidth="27225" windowHeight="12360"/>
+    <workbookView xWindow="765" yWindow="525" windowWidth="27225" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parameters!$A$1:$O$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parameters!$A$1:$O$52</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0">
+    <comment ref="C34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="1">
+    <comment ref="A39" authorId="1">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="147">
   <si>
     <t xml:space="preserve">epsilon_iso </t>
   </si>
@@ -393,12 +393,6 @@
     <t>\textit{ibid.}, Not relevant as model is considered impermeable.</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;- Spatially variable, key for degradation on top soil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;- Spatially variable, key for transport on top soil. </t>
-  </si>
-  <si>
     <t>Soil bulk density, deeper layers (not plough layer) max of top soil</t>
   </si>
   <si>
@@ -438,12 +432,6 @@
     <t>0 - 1</t>
   </si>
   <si>
-    <t>Spatial</t>
-  </si>
-  <si>
-    <t>Spatial Var.</t>
-  </si>
-  <si>
     <t>Calib.</t>
   </si>
   <si>
@@ -459,9 +447,6 @@
     <t>26 - 37</t>
   </si>
   <si>
-    <t>Soil Map Var.?</t>
-  </si>
-  <si>
     <t>1386 (0.0005)</t>
   </si>
   <si>
@@ -474,9 +459,6 @@
     <t>Adsorption coefficient</t>
   </si>
   <si>
-    <t>&lt;- Spatially variable, key for degradation on top soil. If Schroll method is used</t>
-  </si>
-  <si>
     <t>Schroll method.</t>
   </si>
   <si>
@@ -498,12 +480,6 @@
     <t xml:space="preserve">0.37 $\pm$ 0.04 </t>
   </si>
   <si>
-    <t>0.33 - 0.41</t>
-  </si>
-  <si>
-    <t>0.47 - 0.53</t>
-  </si>
-  <si>
     <t>0.39 - 0.42</t>
   </si>
   <si>
@@ -550,6 +526,48 @@
   </si>
   <si>
     <t>0.01 - 1</t>
+  </si>
+  <si>
+    <t>$\theta_{FCz3+}$</t>
+  </si>
+  <si>
+    <t>$\theta_{SATz3+}$</t>
+  </si>
+  <si>
+    <t>0.53 (0.47 - 0.53)</t>
+  </si>
+  <si>
+    <t>0.01 - 0.05</t>
+  </si>
+  <si>
+    <t>Conceptual</t>
+  </si>
+  <si>
+    <t>0.63 (0.54 - 0.61)</t>
+  </si>
+  <si>
+    <t>Sens.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>0.39 (0.34 - 0.41)</t>
+  </si>
+  <si>
+    <t>Ouput TSS</t>
+  </si>
+  <si>
+    <t>Nash TSS</t>
+  </si>
+  <si>
+    <t>Q_sim</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>…include volatilization parameters</t>
   </si>
 </sst>
 </file>
@@ -643,7 +661,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +695,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +789,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,18 +878,9 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,11 +890,21 @@
     <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -906,7 +931,77 @@
     <cellStyle name="Titre 2" xfId="1"/>
     <cellStyle name="Titre 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1254,10 +1349,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1370,8 @@
     <col min="9" max="9" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" style="2"/>
     <col min="11" max="11" width="18" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="15" width="33.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1281,13 +1380,13 @@
         <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>31</v>
@@ -1296,21 +1395,25 @@
         <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1320,7 +1423,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="D2" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="E2" s="25"/>
       <c r="F2" s="26" t="s">
         <v>33</v>
@@ -1329,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>43</v>
@@ -1345,6 +1450,8 @@
         <f>IF(K2="Yes", 1, 0)</f>
         <v>0</v>
       </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -1354,7 +1461,9 @@
         <v>10</v>
       </c>
       <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
         <v>34</v>
@@ -1363,22 +1472,24 @@
         <v>37</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>43</v>
       </c>
       <c r="J3" s="26">
-        <f t="shared" ref="J3:J48" si="0">IF(I3="Yes", 1, 0)</f>
+        <f t="shared" ref="J3:J52" si="0">IF(I3="Yes", 1, 0)</f>
         <v>0</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>43</v>
       </c>
       <c r="L3" s="26">
-        <f t="shared" ref="L3:L48" si="1">IF(K3="Yes", 1, 0)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="L3:L52" si="1">IF(K3="Yes", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -1388,7 +1499,9 @@
         <v>300</v>
       </c>
       <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
         <v>34</v>
@@ -1397,7 +1510,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>43</v>
@@ -1413,6 +1526,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -1422,7 +1537,9 @@
         <v>1200</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="26" t="s">
         <v>34</v>
@@ -1431,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>43</v>
@@ -1447,6 +1564,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
@@ -1456,7 +1575,9 @@
         <v>1510</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="26" t="s">
         <v>34</v>
@@ -1465,7 +1586,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I6" s="26" t="s">
         <v>43</v>
@@ -1481,6 +1602,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -1490,7 +1613,9 @@
         <v>1510</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>137</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="26" t="s">
         <v>34</v>
@@ -1499,7 +1624,7 @@
         <v>38</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>43</v>
@@ -1515,6 +1640,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -1524,11 +1651,11 @@
         <v>0.96</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>33</v>
@@ -1537,7 +1664,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>45</v>
@@ -1553,9 +1680,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L9" s="2"/>
+      <c r="N8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -1565,11 +1707,11 @@
         <v>0.25</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="36"/>
+        <v>100</v>
+      </c>
+      <c r="D10" s="34"/>
       <c r="E10" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>48</v>
@@ -1578,7 +1720,7 @@
         <v>41</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>45</v>
@@ -1594,6 +1736,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N10" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
@@ -1603,7 +1749,7 @@
         <v>0.25</v>
       </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="21"/>
       <c r="F11" s="22" t="s">
         <v>48</v>
@@ -1612,7 +1758,7 @@
         <v>42</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>43</v>
@@ -1628,6 +1774,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -1637,9 +1785,9 @@
         <v>0.25</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="36"/>
+        <v>100</v>
+      </c>
+      <c r="D12" s="34"/>
       <c r="E12" s="21"/>
       <c r="F12" s="22" t="s">
         <v>48</v>
@@ -1648,7 +1796,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>45</v>
@@ -1664,6 +1812,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N12" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" s="22"/>
     </row>
     <row r="13" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
@@ -1673,7 +1825,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" s="32"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="21"/>
       <c r="F13" s="22" t="s">
         <v>48</v>
@@ -1682,7 +1834,7 @@
         <v>42</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>43</v>
@@ -1698,6 +1850,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
@@ -1707,7 +1861,7 @@
         <v>0.25</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="36"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="21"/>
       <c r="F14" s="22" t="s">
         <v>48</v>
@@ -1716,7 +1870,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>43</v>
@@ -1732,6 +1886,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -1741,11 +1897,11 @@
         <v>0.2</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>48</v>
@@ -1754,7 +1910,7 @@
         <v>46</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>45</v>
@@ -1770,29 +1926,33 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="20">
         <v>40000</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>45</v>
@@ -1808,20 +1968,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="17" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="20">
         <v>0.80630000000000002</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="36"/>
+      <c r="C17" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="34"/>
       <c r="E17" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>33</v>
@@ -1830,7 +1994,7 @@
         <v>47</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>45</v>
@@ -1846,20 +2010,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="20">
         <v>0.60629999999999995</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="36"/>
+      <c r="C18" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="34"/>
       <c r="E18" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>33</v>
@@ -1868,7 +2036,7 @@
         <v>42</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>45</v>
@@ -1884,8 +2052,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>15</v>
       </c>
@@ -1893,11 +2065,11 @@
         <v>0.40629999999999999</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="36"/>
+        <v>100</v>
+      </c>
+      <c r="D19" s="34"/>
       <c r="E19" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>33</v>
@@ -1906,7 +2078,7 @@
         <v>42</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>45</v>
@@ -1922,8 +2094,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
@@ -1931,9 +2107,9 @@
         <v>0.40629999999999999</v>
       </c>
       <c r="C20" s="33"/>
-      <c r="D20" s="36"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>33</v>
@@ -1942,7 +2118,7 @@
         <v>42</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>43</v>
@@ -1958,8 +2134,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>13</v>
       </c>
@@ -1967,7 +2145,9 @@
         <v>0</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="34" t="s">
+        <v>137</v>
+      </c>
       <c r="E21" s="21"/>
       <c r="F21" s="22" t="s">
         <v>33</v>
@@ -1976,7 +2156,7 @@
         <v>87</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>43</v>
@@ -1992,8 +2172,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+    </row>
+    <row r="22" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>12</v>
       </c>
@@ -2001,11 +2183,11 @@
         <v>0.4</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>33</v>
@@ -2014,7 +2196,7 @@
         <v>49</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I22" s="22" t="s">
         <v>45</v>
@@ -2030,19 +2212,25 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="20">
         <v>0.19</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="21" t="s">
-        <v>104</v>
-      </c>
+      <c r="C23" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="22" t="s">
         <v>33</v>
       </c>
@@ -2050,7 +2238,7 @@
         <v>50</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>43</v>
@@ -2060,29 +2248,34 @@
         <v>0</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>104</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="21"/>
       <c r="F24" s="22" t="s">
         <v>33</v>
       </c>
@@ -2090,7 +2283,7 @@
         <v>57</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>43</v>
@@ -2099,36 +2292,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="35" t="s">
-        <v>45</v>
+      <c r="K24" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="N24" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>104</v>
-      </c>
+      <c r="C25" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="22" t="s">
         <v>33</v>
       </c>
@@ -2136,7 +2328,7 @@
         <v>58</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>43</v>
@@ -2145,35 +2337,36 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="35" t="s">
-        <v>45</v>
+      <c r="K25" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="N25" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>135</v>
+        <v>114</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>33</v>
@@ -2182,7 +2375,7 @@
         <v>51</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>43</v>
@@ -2198,22 +2391,26 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O26" s="22"/>
+    </row>
+    <row r="27" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>135</v>
+        <v>59</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>33</v>
@@ -2222,7 +2419,7 @@
         <v>52</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>43</v>
@@ -2238,31 +2435,30 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O27" s="22"/>
+    </row>
+    <row r="28" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="20">
-        <v>0.42</v>
+        <v>133</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>64</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F28" s="22"/>
       <c r="H28" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>43</v>
@@ -2278,37 +2474,30 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M28" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="22"/>
+    </row>
+    <row r="29" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="C29" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>135</v>
-      </c>
       <c r="E29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>42</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F29" s="22"/>
       <c r="H29" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>43</v>
@@ -2324,71 +2513,87 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="20">
-        <v>0.38</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="22">
+      <c r="N29" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+    </row>
+    <row r="31" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="22">
+      <c r="K31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>104</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="16"/>
       <c r="F32" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>83</v>
@@ -2407,34 +2612,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="18">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>104</v>
-      </c>
       <c r="F33" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>83</v>
@@ -2447,172 +2648,146 @@
         <v>0</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L33" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+    </row>
+    <row r="34" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="18">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="15"/>
+        <v>120</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="16"/>
       <c r="E34" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>83</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J34" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(I34="Yes", 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>45</v>
       </c>
       <c r="L34" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="18">
-        <v>120</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="17" t="s">
+        <f>IF(K34="Yes", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="36">
+        <v>1</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="17">
+      <c r="I35" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="39">
         <f>IF(I35="Yes", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="L35" s="17">
-        <f>IF(K35="Yes", 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="39">
-        <v>1</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" s="43">
-        <f>IF(I36="Yes", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="L36" s="43">
-        <f t="shared" ref="L36" si="2">IF(K36="Yes", 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="13">
-        <f t="shared" ref="J38:J39" si="3">IF(I38="Yes", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L38" s="13">
-        <f t="shared" ref="L38:L39" si="4">IF(K38="Yes", 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="39">
+        <f t="shared" ref="L35" si="2">IF(K35="Yes", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+    </row>
+    <row r="36" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+    </row>
+    <row r="37" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+    </row>
+    <row r="38" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+    </row>
+    <row r="39" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -2620,7 +2795,7 @@
         <v>85</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>84</v>
@@ -2629,34 +2804,36 @@
         <v>45</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J39:J40" si="3">IF(I39="Yes", 1, 0)</f>
         <v>1</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>45</v>
       </c>
       <c r="L39" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L39:L40" si="4">IF(K39="Yes", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="11">
-        <v>32</v>
+        <v>103</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>84</v>
@@ -2665,34 +2842,36 @@
         <v>45</v>
       </c>
       <c r="J40" s="13">
-        <f>IF(I40="Yes", 1, 0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>45</v>
       </c>
       <c r="L40" s="13">
-        <f>IF(K40="Yes", 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B41" s="11">
-        <v>-2.9</v>
+        <v>32</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>84</v>
@@ -2711,16 +2890,18 @@
         <f>IF(K41="Yes", 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B42" s="11">
-        <v>0.5</v>
+        <v>-2.9</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -2728,7 +2909,7 @@
         <v>74</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>84</v>
@@ -2747,164 +2928,208 @@
         <f>IF(K42="Yes", 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="13">
+        <f>IF(I43="Yes", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" s="13">
+        <f>IF(K43="Yes", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" s="13">
+        <f>IF(I44="Yes", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" s="13">
+        <f>IF(K44="Yes", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" s="13">
+        <f>IF(I45="Yes", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" s="13">
+        <f>IF(K45="Yes", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="13">
+        <f>IF(I46="Yes", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" s="13">
+        <f>IF(K46="Yes", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+    </row>
+    <row r="48" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B48" s="28">
         <v>283.79599999999999</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L44" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="28">
-        <v>1.1237199999999999E-2</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" s="30">
-        <f>IF(I45="Yes", 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L45" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="28">
-        <v>20</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="28">
-        <v>23.91</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J47" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="28">
-        <v>8.3140000000000002E-3</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="30" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I48" s="30" t="s">
         <v>43</v>
@@ -2920,25 +3145,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+    </row>
+    <row r="49" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B49" s="28">
-        <v>42600</v>
+        <v>1.1237199999999999E-2</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I49" s="30" t="s">
         <v>43</v>
@@ -2951,83 +3178,250 @@
         <v>43</v>
       </c>
       <c r="L49" s="30">
-        <f>IF(K49="Yes", 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J51" s="2">
-        <f>SUM(J2:J49)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+    </row>
+    <row r="50" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="28">
+        <v>20</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L50" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+    </row>
+    <row r="51" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="28">
+        <v>23.91</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+    </row>
+    <row r="52" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="28">
+        <v>8.3140000000000002E-3</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+    </row>
+    <row r="53" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="28">
+        <v>42600</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="30">
+        <f>IF(I53="Yes", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53" s="30">
+        <f>IF(K53="Yes", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+    </row>
+    <row r="54" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J55" s="2">
+        <f>SUM(J2:J53)</f>
         <v>16</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L51" s="2">
-        <f>SUM(L2:L49)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="K55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L55" s="2">
+        <f>SUM(L2:L53)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>1</v>
-      </c>
-      <c r="B53" s="4">
-        <f>EXP(-A53*10)</f>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4">
+        <f>EXP(-A57*10)</f>
         <v>4.5399929762484854E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>0.1</v>
       </c>
-      <c r="B54" s="4">
-        <f t="shared" ref="B54:B55" si="5">EXP(-A54*10)</f>
+      <c r="B58" s="4">
+        <f t="shared" ref="B58:B59" si="5">EXP(-A58*10)</f>
         <v>0.36787944117144233</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>0.01</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B59" s="4">
         <f t="shared" si="5"/>
         <v>0.90483741803595952</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="2"/>
+    <row r="61" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="2"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K53:K57 K42 I2:I10 K45:K49 I51:I57 I15:I49 K2:K39">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="K57:K61 I2:I10 K49:K53 I55:I61 K31:K35 I31:I35 K39:K40 I48:I53 I15:I29 I39:I46 K2:K29 K43:K46">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:K44">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="K48">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:K41">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="K41:K42">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54 K54 I47 K47 I36:I38 K36:K38 I30 K30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
